--- a/InterviewSample/src/test/java/excel/rediff.xlsx
+++ b/InterviewSample/src/test/java/excel/rediff.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Mahaveer Infoway Ltd</t>
   </si>
@@ -50,97 +50,94 @@
     <t>Bartronics India Ltd</t>
   </si>
   <si>
+    <t>Goenka Diamond &amp; Jew</t>
+  </si>
+  <si>
+    <t>Mount Shivalik I</t>
+  </si>
+  <si>
+    <t>Suraj Products Ltd.</t>
+  </si>
+  <si>
+    <t>Cox &amp; Kings L</t>
+  </si>
+  <si>
+    <t>Punj Lloyd</t>
+  </si>
+  <si>
+    <t>Sanwaria Consumer</t>
+  </si>
+  <si>
+    <t>Ballarpur Ind.</t>
+  </si>
+  <si>
+    <t>Jain Studios Ltd</t>
+  </si>
+  <si>
+    <t>Raj Rayon Industries</t>
+  </si>
+  <si>
+    <t>Richa Industries Ltd</t>
+  </si>
+  <si>
+    <t>Padmalaya Tele</t>
+  </si>
+  <si>
+    <t>Cella Space Ltd.</t>
+  </si>
+  <si>
+    <t>Ramsarup Industries</t>
+  </si>
+  <si>
+    <t>Melstar Inform.</t>
+  </si>
+  <si>
+    <t>Indosolar Ltd.</t>
+  </si>
+  <si>
+    <t>HMT Ltd.</t>
+  </si>
+  <si>
+    <t>Goldline Intl.</t>
+  </si>
+  <si>
+    <t>IL&amp;FS Transportation</t>
+  </si>
+  <si>
+    <t>SGN Telecoms Ltd.</t>
+  </si>
+  <si>
+    <t>Jumbo Bags Ltd</t>
+  </si>
+  <si>
+    <t>Gopala Polyplast</t>
+  </si>
+  <si>
+    <t>Flomic Global Logist</t>
+  </si>
+  <si>
+    <t>Prime Industries</t>
+  </si>
+  <si>
+    <t>Heera Ispat Ltd.</t>
+  </si>
+  <si>
+    <t>Aishwarya Tech.&amp;Tele</t>
+  </si>
+  <si>
+    <t>Nitin Fire Protectio</t>
+  </si>
+  <si>
+    <t>Educomp Solutions</t>
+  </si>
+  <si>
     <t>IL&amp;FS Engineering</t>
   </si>
   <si>
-    <t>Mount Shivalik I</t>
-  </si>
-  <si>
-    <t>Cox &amp; Kings L</t>
-  </si>
-  <si>
-    <t>Suraj Products Ltd.</t>
-  </si>
-  <si>
-    <t>Punj Lloyd</t>
-  </si>
-  <si>
-    <t>Sanwaria Consumer</t>
-  </si>
-  <si>
-    <t>Ballarpur Ind.</t>
-  </si>
-  <si>
-    <t>Raj Rayon Industries</t>
-  </si>
-  <si>
-    <t>Richa Industries Ltd</t>
-  </si>
-  <si>
-    <t>Padmalaya Tele</t>
-  </si>
-  <si>
-    <t>Cella Space Ltd.</t>
-  </si>
-  <si>
-    <t>Ramsarup Industries</t>
-  </si>
-  <si>
-    <t>Melstar Inform.</t>
-  </si>
-  <si>
-    <t>HMT Ltd.</t>
-  </si>
-  <si>
-    <t>CLC Industries</t>
-  </si>
-  <si>
-    <t>Indosolar Ltd.</t>
-  </si>
-  <si>
-    <t>Goenka Diamond &amp; Jew</t>
-  </si>
-  <si>
-    <t>Goldline Intl.</t>
-  </si>
-  <si>
-    <t>IL&amp;FS Transportation</t>
-  </si>
-  <si>
-    <t>SGN Telecoms Ltd.</t>
-  </si>
-  <si>
-    <t>Jumbo Bags Ltd</t>
-  </si>
-  <si>
-    <t>Jain Studios Ltd</t>
-  </si>
-  <si>
-    <t>Gopala Polyplast</t>
-  </si>
-  <si>
-    <t>Flomic Global Logist</t>
-  </si>
-  <si>
-    <t>Prime Industries</t>
-  </si>
-  <si>
-    <t>Heera Ispat Ltd.</t>
-  </si>
-  <si>
-    <t>Aishwarya Tech.&amp;Tele</t>
-  </si>
-  <si>
-    <t>Educomp Solutions</t>
-  </si>
-  <si>
     <t>Ajel Ltd.</t>
   </si>
   <si>
     <t>Prabhat Technologies</t>
-  </si>
-  <si>
-    <t>Cybermt Infotek</t>
   </si>
 </sst>
 </file>
@@ -185,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,11 +398,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/InterviewSample/src/test/java/excel/rediff.xlsx
+++ b/InterviewSample/src/test/java/excel/rediff.xlsx
@@ -12,132 +12,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Mahaveer Infoway Ltd</t>
-  </si>
-  <si>
-    <t>National Plywood Ind</t>
-  </si>
-  <si>
-    <t>Jet Airways</t>
-  </si>
-  <si>
-    <t>Minolta Finance</t>
-  </si>
-  <si>
-    <t>Polo Hotels Limi</t>
-  </si>
-  <si>
-    <t>Emco Ltd.</t>
-  </si>
-  <si>
-    <t>Syncom Healthcare Lt</t>
-  </si>
-  <si>
-    <t>Jyoti Structures</t>
-  </si>
-  <si>
-    <t>Unitech Ltd.</t>
-  </si>
-  <si>
-    <t>HDIL</t>
-  </si>
-  <si>
-    <t>Videocon Industries</t>
-  </si>
-  <si>
-    <t>Bartronics India Ltd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>IykotHitechToolroom</t>
+  </si>
+  <si>
+    <t>Lakshmi Precn.Sc</t>
+  </si>
+  <si>
+    <t>Kobo Biotech</t>
+  </si>
+  <si>
+    <t>IL&amp;FS Transportation</t>
+  </si>
+  <si>
+    <t>Trident Tools Ltd.</t>
+  </si>
+  <si>
+    <t>Gopala Polyplast</t>
+  </si>
+  <si>
+    <t>Tantia Constructions</t>
+  </si>
+  <si>
+    <t>Rajasthan Gases</t>
+  </si>
+  <si>
+    <t>Melstar Inform.</t>
+  </si>
+  <si>
+    <t>Prime Industries</t>
+  </si>
+  <si>
+    <t>Mahalaxmi Seam</t>
+  </si>
+  <si>
+    <t>Polytex India Lt</t>
+  </si>
+  <si>
+    <t>Twinstar Industries</t>
+  </si>
+  <si>
+    <t>Nitin Fire Protectio</t>
+  </si>
+  <si>
+    <t>Boston Leasing</t>
+  </si>
+  <si>
+    <t>Richa Industries Ltd</t>
+  </si>
+  <si>
+    <t>Global Capital Mark</t>
+  </si>
+  <si>
+    <t>CLC Industries</t>
+  </si>
+  <si>
+    <t>Suraj Products Ltd.</t>
+  </si>
+  <si>
+    <t>Goldline Intl.</t>
+  </si>
+  <si>
+    <t>Gujarat Metallic</t>
+  </si>
+  <si>
+    <t>Golkonda Aluminium</t>
+  </si>
+  <si>
+    <t>C &amp; C Constructions</t>
+  </si>
+  <si>
+    <t>Ballarpur Ind.</t>
+  </si>
+  <si>
+    <t>Sanwaria Consumer</t>
+  </si>
+  <si>
+    <t>Diamond Power Infras</t>
   </si>
   <si>
     <t>Goenka Diamond &amp; Jew</t>
   </si>
   <si>
-    <t>Mount Shivalik I</t>
-  </si>
-  <si>
-    <t>Suraj Products Ltd.</t>
-  </si>
-  <si>
-    <t>Cox &amp; Kings L</t>
-  </si>
-  <si>
-    <t>Punj Lloyd</t>
-  </si>
-  <si>
-    <t>Sanwaria Consumer</t>
-  </si>
-  <si>
-    <t>Ballarpur Ind.</t>
-  </si>
-  <si>
-    <t>Jain Studios Ltd</t>
-  </si>
-  <si>
-    <t>Raj Rayon Industries</t>
-  </si>
-  <si>
-    <t>Richa Industries Ltd</t>
-  </si>
-  <si>
-    <t>Padmalaya Tele</t>
-  </si>
-  <si>
-    <t>Cella Space Ltd.</t>
-  </si>
-  <si>
-    <t>Ramsarup Industries</t>
-  </si>
-  <si>
-    <t>Melstar Inform.</t>
-  </si>
-  <si>
-    <t>Indosolar Ltd.</t>
-  </si>
-  <si>
-    <t>HMT Ltd.</t>
-  </si>
-  <si>
-    <t>Goldline Intl.</t>
-  </si>
-  <si>
-    <t>IL&amp;FS Transportation</t>
-  </si>
-  <si>
-    <t>SGN Telecoms Ltd.</t>
-  </si>
-  <si>
-    <t>Jumbo Bags Ltd</t>
-  </si>
-  <si>
-    <t>Gopala Polyplast</t>
-  </si>
-  <si>
-    <t>Flomic Global Logist</t>
-  </si>
-  <si>
-    <t>Prime Industries</t>
-  </si>
-  <si>
-    <t>Heera Ispat Ltd.</t>
-  </si>
-  <si>
-    <t>Aishwarya Tech.&amp;Tele</t>
-  </si>
-  <si>
-    <t>Nitin Fire Protectio</t>
-  </si>
-  <si>
-    <t>Educomp Solutions</t>
-  </si>
-  <si>
-    <t>IL&amp;FS Engineering</t>
-  </si>
-  <si>
-    <t>Ajel Ltd.</t>
-  </si>
-  <si>
-    <t>Prabhat Technologies</t>
+    <t>Polo Hotels</t>
   </si>
 </sst>
 </file>
@@ -182,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -328,76 +286,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
